--- a/Hospital-Service/src/modules/data/user_data.xlsx
+++ b/Hospital-Service/src/modules/data/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56,6 +56,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jonathan Gonzalez</t>
+          <t>Erica Harmon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -405,11 +473,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9889</v>
+        <v>4875</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="1" t="n">
-        <v>43949</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="3">
@@ -420,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gloria Myers</t>
+          <t>Daniel Taylor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -429,11 +497,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2880</v>
+        <v>1739</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="1" t="n">
-        <v>43988</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +512,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Morgan Schroeder</t>
+          <t>Denise Larson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -453,11 +521,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2354</v>
+        <v>6146</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" s="1" t="n">
-        <v>44017</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joshua Moore</t>
+          <t>Ms. Karen Marshall DVM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -477,11 +545,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9076</v>
+        <v>5710</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>43866</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +560,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Melissa George</t>
+          <t>Catherine Weaver</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -501,11 +569,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4473</v>
+        <v>6667</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" s="1" t="n">
-        <v>43907</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +584,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Julia Wiggins</t>
+          <t>Brandon Stokes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -525,11 +593,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4976</v>
+        <v>4511</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" s="1" t="n">
-        <v>43978</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +608,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tracy Robertson</t>
+          <t>Megan Guerrero</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -549,11 +617,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6769</v>
+        <v>5093</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" s="1" t="n">
-        <v>43864</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +632,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brian Alvarez</t>
+          <t>Joshua Roberts</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -573,11 +641,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9731</v>
+        <v>8278</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" s="1" t="n">
-        <v>44014</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="10">
@@ -588,7 +656,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Brianna Clark</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -597,11 +665,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4755</v>
+        <v>6814</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" s="1" t="n">
-        <v>43949</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Steven Cobb</t>
+          <t>Nicole Madden</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -621,11 +689,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4562</v>
+        <v>14</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" s="1" t="n">
-        <v>43869</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="12">
@@ -636,7 +704,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nicole Richardson</t>
+          <t>Ernest Hodges</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,11 +713,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9292</v>
+        <v>8520</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" s="1" t="n">
-        <v>43869</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="13">
@@ -660,7 +728,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mark Green</t>
+          <t>Carlos Johnston</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -669,11 +737,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8952</v>
+        <v>4376</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" s="1" t="n">
-        <v>44011</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="14">
@@ -684,7 +752,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brittany Stevens</t>
+          <t>Angela Henry DDS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -693,11 +761,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8960</v>
+        <v>6031</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" s="1" t="n">
-        <v>43981</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="15">
@@ -708,7 +776,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kevin Powell</t>
+          <t>Janet Cook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -717,11 +785,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5441</v>
+        <v>5476</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" s="1" t="n">
-        <v>43955</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="16">
@@ -732,7 +800,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Catherine White</t>
+          <t>Andrea Cook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -741,11 +809,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5615</v>
+        <v>8310</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" s="1" t="n">
-        <v>43913</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +824,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Robert Jefferson</t>
+          <t>Kyle Herring</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -765,11 +833,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9009</v>
+        <v>8350</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" s="1" t="n">
-        <v>43867</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +848,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>David Alvarado</t>
+          <t>Walter Huff</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -789,11 +857,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5435</v>
+        <v>2754</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" s="1" t="n">
-        <v>43875</v>
+        <v>43885</v>
       </c>
     </row>
     <row r="19">
@@ -804,7 +872,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Annette Newman</t>
+          <t>Wendy Rowe</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -813,11 +881,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>6549</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" s="1" t="n">
-        <v>43857</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="20">
@@ -828,7 +896,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Anne Taylor</t>
+          <t>Angela Andersen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -837,11 +905,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9024</v>
+        <v>7931</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" s="1" t="n">
-        <v>43890</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +920,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Christopher Green</t>
+          <t>Sandra Aguirre</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -861,11 +929,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2801</v>
+        <v>4682</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" s="1" t="n">
-        <v>43862</v>
+        <v>43904</v>
       </c>
     </row>
     <row r="22">
@@ -876,7 +944,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aaron Hubbard</t>
+          <t>Jennifer Webb</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -885,11 +953,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1439</v>
+        <v>4952</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" s="1" t="n">
-        <v>43907</v>
+        <v>43953</v>
       </c>
     </row>
     <row r="23">
@@ -900,7 +968,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sandra Hunter</t>
+          <t>Gabriela Young</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -909,11 +977,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6933</v>
+        <v>3291</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" s="1" t="n">
-        <v>43840</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +992,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jesus Gonzalez</t>
+          <t>Rebecca Brooks</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -933,11 +1001,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2541</v>
+        <v>2272</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" s="1" t="n">
-        <v>43919</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="25">
@@ -948,7 +1016,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jeffrey Johnson</t>
+          <t>Crystal Stevens</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -957,7 +1025,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5392</v>
+        <v>396</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" s="1" t="n">
@@ -972,7 +1040,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Stacey Holden</t>
+          <t>Rachel Monroe</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -981,11 +1049,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4739</v>
+        <v>3034</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" s="1" t="n">
-        <v>43879</v>
+        <v>43885</v>
       </c>
     </row>
     <row r="27">
@@ -996,7 +1064,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Elizabeth Powell</t>
+          <t>William Bowen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1005,11 +1073,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3032</v>
+        <v>473</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" s="1" t="n">
-        <v>43985</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="28">
@@ -1020,7 +1088,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mary Pitts</t>
+          <t>Mrs. Kimberly Jimenez</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1029,11 +1097,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3575</v>
+        <v>182</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" s="1" t="n">
-        <v>43983</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="29">
@@ -1044,7 +1112,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>John Miller</t>
+          <t>Amber Lee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1053,11 +1121,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3339</v>
+        <v>9056</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" s="1" t="n">
-        <v>43838</v>
+        <v>43836</v>
       </c>
     </row>
     <row r="30">
@@ -1068,7 +1136,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shannon Castillo</t>
+          <t>Steven Nichols</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1077,11 +1145,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6416</v>
+        <v>2706</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" s="1" t="n">
-        <v>43925</v>
+        <v>44006</v>
       </c>
     </row>
     <row r="31">
@@ -1092,7 +1160,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Michael Hernandez</t>
+          <t>Katherine Wright</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1101,11 +1169,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6928</v>
+        <v>5700</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" s="1" t="n">
-        <v>43880</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="32">
@@ -1116,7 +1184,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Marie Williams</t>
+          <t>Derek Stephenson</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1125,11 +1193,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7518</v>
+        <v>8302</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" s="1" t="n">
-        <v>44001</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="33">
@@ -1140,7 +1208,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jonathan Mason</t>
+          <t>Christopher Robles</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1149,11 +1217,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" s="1" t="n">
-        <v>44018</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="34">
@@ -1164,7 +1232,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Linda Lambert</t>
+          <t>Dr. Barbara Boyle</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1173,11 +1241,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1798</v>
+        <v>7803</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" s="1" t="n">
-        <v>43934</v>
+        <v>43838</v>
       </c>
     </row>
     <row r="35">
@@ -1188,7 +1256,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amanda Davis</t>
+          <t>Barbara Norris</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1197,11 +1265,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8384</v>
+        <v>5977</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" s="1" t="n">
-        <v>43901</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1280,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bradley Bowen</t>
+          <t>Sierra Shannon</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1221,11 +1289,11 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3571</v>
+        <v>7508</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" s="1" t="n">
-        <v>43962</v>
+        <v>43947</v>
       </c>
     </row>
     <row r="37">
@@ -1236,7 +1304,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Eric Wilson</t>
+          <t>Michael Kaufman</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1245,11 +1313,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7123</v>
+        <v>9620</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" s="1" t="n">
-        <v>43889</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="38">
@@ -1260,7 +1328,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Linda Morrison</t>
+          <t>Erin Cisneros</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1269,11 +1337,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4144</v>
+        <v>446</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" s="1" t="n">
-        <v>43971</v>
+        <v>44017</v>
       </c>
     </row>
     <row r="39">
@@ -1284,7 +1352,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Stephen Cruz</t>
+          <t>Nancy Ellison</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1293,11 +1361,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9954</v>
+        <v>6760</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" s="1" t="n">
-        <v>43950</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="40">
@@ -1308,7 +1376,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Paula Smith</t>
+          <t>Mark Chan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1317,11 +1385,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>303</v>
+        <v>8320</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" s="1" t="n">
-        <v>43958</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="41">
@@ -1332,7 +1400,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Carlos Robertson DVM</t>
+          <t>Nicole Boone</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1341,11 +1409,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9785</v>
+        <v>4485</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" s="1" t="n">
-        <v>43870</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="42">
@@ -1356,7 +1424,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cheryl Burns</t>
+          <t>Christopher Woodard</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1365,11 +1433,11 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5203</v>
+        <v>7365</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" s="1" t="n">
-        <v>43847</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="43">
@@ -1380,7 +1448,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Richard Stephens</t>
+          <t>Julie House</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1389,11 +1457,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7015</v>
+        <v>8869</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" s="1" t="n">
-        <v>43871</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="44">
@@ -1404,7 +1472,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Donna Edwards</t>
+          <t>Barbara Banks</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1413,11 +1481,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4005</v>
+        <v>867</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" s="1" t="n">
-        <v>43892</v>
+        <v>43946</v>
       </c>
     </row>
     <row r="45">
@@ -1428,7 +1496,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gerald Smith</t>
+          <t>Troy Rollins</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1437,11 +1505,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5018</v>
+        <v>7958</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" s="1" t="n">
-        <v>43928</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="46">
@@ -1452,7 +1520,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Walter Bolton</t>
+          <t>David Bennett</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1461,11 +1529,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9632</v>
+        <v>6836</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" s="1" t="n">
-        <v>44028</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="47">
@@ -1476,7 +1544,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lisa Moreno</t>
+          <t>Angela Robinson</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1485,11 +1553,11 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>811</v>
+        <v>6048</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" s="1" t="n">
-        <v>43944</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="48">
@@ -1500,7 +1568,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Valerie Diaz</t>
+          <t>Mary Smith</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1509,11 +1577,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7658</v>
+        <v>9753</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" s="1" t="n">
-        <v>43884</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="49">
@@ -1524,7 +1592,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lisa Dyer</t>
+          <t>Stephanie Roberts</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1533,11 +1601,11 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2338</v>
+        <v>386</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" s="1" t="n">
-        <v>44030</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="50">
@@ -1548,7 +1616,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Maria Everett</t>
+          <t>Jamie Garcia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1557,11 +1625,11 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5573</v>
+        <v>6238</v>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" s="1" t="n">
-        <v>43982</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="51">
@@ -1572,7 +1640,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Justin Carter</t>
+          <t>Matthew Anderson</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1581,11 +1649,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>9655</v>
+        <v>6580</v>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" s="1" t="n">
-        <v>43855</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="52">
@@ -1596,7 +1664,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>William Dawson</t>
+          <t>Scott Sanchez</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1605,11 +1673,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7252</v>
+        <v>1704</v>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" s="1" t="n">
-        <v>43902</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="53">
@@ -1620,7 +1688,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Natasha Dunn</t>
+          <t>Nichole Johnson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1629,11 +1697,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8429</v>
+        <v>1613</v>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" s="1" t="n">
-        <v>43912</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="54">
@@ -1644,7 +1712,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Michael Lam</t>
+          <t>Aaron Woods</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1653,11 +1721,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7783</v>
+        <v>1585</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" s="1" t="n">
-        <v>43942</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="55">
@@ -1668,7 +1736,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mrs. Kristine Sanchez DDS</t>
+          <t>Corey Woods</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1677,11 +1745,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9394</v>
+        <v>5249</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" s="1" t="n">
-        <v>43951</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="56">
@@ -1692,7 +1760,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Brooke Smith</t>
+          <t>Angelica Willis</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1701,11 +1769,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4381</v>
+        <v>1983</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" s="1" t="n">
-        <v>44008</v>
+        <v>43832</v>
       </c>
     </row>
     <row r="57">
@@ -1716,7 +1784,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Anthony Peterson</t>
+          <t>Jeffrey Gardner</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1725,11 +1793,11 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7523</v>
+        <v>4940</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" s="1" t="n">
-        <v>43919</v>
+        <v>43843</v>
       </c>
     </row>
     <row r="58">
@@ -1740,7 +1808,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Robert Herman</t>
+          <t>Emily Park</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1749,11 +1817,11 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6483</v>
+        <v>397</v>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" s="1" t="n">
-        <v>43941</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="59">
@@ -1764,7 +1832,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>George Smith</t>
+          <t>Jennifer Jackson</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1773,11 +1841,11 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2668</v>
+        <v>2710</v>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" s="1" t="n">
-        <v>43982</v>
+        <v>43974</v>
       </c>
     </row>
     <row r="60">
@@ -1788,7 +1856,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Scott Lane</t>
+          <t>Taylor Whitaker</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1797,11 +1865,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3919</v>
+        <v>1671</v>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" s="1" t="n">
-        <v>43872</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="61">
@@ -1812,7 +1880,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Teresa Cuevas</t>
+          <t>Gary Cantu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1821,11 +1889,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8134</v>
+        <v>1803</v>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" s="1" t="n">
-        <v>43900</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="62">
@@ -1836,7 +1904,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kimberly King</t>
+          <t>Christopher Ewing</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1845,11 +1913,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3390</v>
+        <v>265</v>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" s="1" t="n">
-        <v>44017</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="63">
@@ -1860,7 +1928,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jo Ruiz</t>
+          <t>Jennifer Campbell</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1869,11 +1937,11 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9632</v>
+        <v>2813</v>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" s="1" t="n">
-        <v>44005</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="64">
@@ -1884,7 +1952,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Taylor Beasley</t>
+          <t>Caitlin Smith DVM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1893,11 +1961,11 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6033</v>
+        <v>3849</v>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" s="1" t="n">
-        <v>43864</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="65">
@@ -1908,7 +1976,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Claudia Spencer</t>
+          <t>David Montes</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1917,11 +1985,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1707</v>
+        <v>7282</v>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" s="1" t="n">
-        <v>43999</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="66">
@@ -1932,7 +2000,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chelsea Leon</t>
+          <t>Paul Keller</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1941,11 +2009,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2393</v>
+        <v>4552</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" s="1" t="n">
-        <v>43987</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="67">
@@ -1956,7 +2024,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tanner Jennings</t>
+          <t>Ashlee Martin</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1965,11 +2033,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7906</v>
+        <v>1928</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" s="1" t="n">
-        <v>43839</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="68">
@@ -1980,7 +2048,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Patrick Miller</t>
+          <t>Monique Williams</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1989,11 +2057,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4779</v>
+        <v>3107</v>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" s="1" t="n">
-        <v>43928</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="69">
@@ -2004,7 +2072,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Connie Sanchez</t>
+          <t>Kelly Johnson</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2013,11 +2081,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3609</v>
+        <v>4824</v>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" s="1" t="n">
-        <v>43960</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="70">
@@ -2028,7 +2096,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>James Roberts</t>
+          <t>David Rogers</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2037,11 +2105,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1270</v>
+        <v>179</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" s="1" t="n">
-        <v>43927</v>
+        <v>43883</v>
       </c>
     </row>
     <row r="71">
@@ -2052,7 +2120,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Brad Hoffman</t>
+          <t>Timothy Smith</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2061,11 +2129,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4648</v>
+        <v>8827</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" s="1" t="n">
-        <v>43895</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="72">
@@ -2076,7 +2144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Joanne Dawson</t>
+          <t>Nicholas White</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2085,11 +2153,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>845</v>
+        <v>9880</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" s="1" t="n">
-        <v>43912</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="73">
@@ -2100,7 +2168,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tristan Gonzalez</t>
+          <t>Cory Hernandez</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2109,11 +2177,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1880</v>
+        <v>3504</v>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" s="1" t="n">
-        <v>43901</v>
+        <v>43993</v>
       </c>
     </row>
     <row r="74">
@@ -2124,7 +2192,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Diana Bray</t>
+          <t>Dana Marsh</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2133,11 +2201,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8159</v>
+        <v>9871</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" s="1" t="n">
-        <v>43982</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="75">
@@ -2148,7 +2216,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Marie Woods</t>
+          <t>Daniel Graham</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2157,11 +2225,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7653</v>
+        <v>7746</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" s="1" t="n">
-        <v>43899</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="76">
@@ -2172,7 +2240,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kristen Matthews</t>
+          <t>Joseph Martin</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2181,11 +2249,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5570</v>
+        <v>8373</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" s="1" t="n">
-        <v>43960</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="77">
@@ -2196,7 +2264,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Patricia Avila</t>
+          <t>Gregory Hawkins</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2205,11 +2273,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4266</v>
+        <v>2871</v>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" s="1" t="n">
-        <v>43866</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="78">
@@ -2220,7 +2288,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Benjamin Compton</t>
+          <t>Kenneth Randall</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2229,11 +2297,11 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3981</v>
+        <v>4555</v>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" s="1" t="n">
-        <v>43956</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="79">
@@ -2244,7 +2312,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>David Briggs</t>
+          <t>Bryan Diaz</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2253,11 +2321,11 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7510</v>
+        <v>4764</v>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" s="1" t="n">
-        <v>43985</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="80">
@@ -2268,7 +2336,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Austin Collins</t>
+          <t>Lynn Walters</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2277,11 +2345,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3603</v>
+        <v>4682</v>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" s="1" t="n">
-        <v>43934</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="81">
@@ -2292,7 +2360,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lisa Doyle</t>
+          <t>Tracy Brown</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2301,11 +2369,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5189</v>
+        <v>8050</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" s="1" t="n">
-        <v>43977</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="82">
@@ -2316,7 +2384,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Margaret Atkinson</t>
+          <t>Louis Love</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2325,11 +2393,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4254</v>
+        <v>6069</v>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" s="1" t="n">
-        <v>43929</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="83">
@@ -2340,7 +2408,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nathan Haynes</t>
+          <t>Jonathan Evans</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2349,11 +2417,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6918</v>
+        <v>6618</v>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" s="1" t="n">
-        <v>43858</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="84">
@@ -2364,7 +2432,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>William Davis</t>
+          <t>Heather Rivers</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2373,11 +2441,11 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3574</v>
+        <v>2373</v>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" s="1" t="n">
-        <v>43869</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="85">
@@ -2388,7 +2456,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Vanessa Mitchell</t>
+          <t>Travis Schneider</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2397,11 +2465,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3837</v>
+        <v>8033</v>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" s="1" t="n">
-        <v>43893</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="86">
@@ -2412,7 +2480,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>James Stuart</t>
+          <t>Cassidy Phillips</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2421,11 +2489,11 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9423</v>
+        <v>9002</v>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" s="1" t="n">
-        <v>43923</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="87">
@@ -2436,7 +2504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Walter White</t>
+          <t>Andrew Little</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2445,11 +2513,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9973</v>
+        <v>3897</v>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" s="1" t="n">
-        <v>43951</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="88">
@@ -2460,7 +2528,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Madison Reyes</t>
+          <t>Pamela Sanchez</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2469,11 +2537,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6699</v>
+        <v>9036</v>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" s="1" t="n">
-        <v>43851</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="89">
@@ -2484,7 +2552,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Brittany Smith</t>
+          <t>Robert Robinson</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2493,11 +2561,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6387</v>
+        <v>8530</v>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" s="1" t="n">
-        <v>43990</v>
+        <v>43846</v>
       </c>
     </row>
     <row r="90">
@@ -2508,7 +2576,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gary Jones</t>
+          <t>Jeffrey Collins</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2517,11 +2585,11 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4267</v>
+        <v>520</v>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" s="1" t="n">
-        <v>43901</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="91">
@@ -2532,7 +2600,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>David Ruiz</t>
+          <t>Jacob Holloway</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2541,11 +2609,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>275</v>
+        <v>6041</v>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" s="1" t="n">
-        <v>43916</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="92">
@@ -2556,7 +2624,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jaime Hall</t>
+          <t>Ms. Diana Miller PhD</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2565,11 +2633,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5109</v>
+        <v>6088</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" s="1" t="n">
-        <v>43929</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="93">
@@ -2580,7 +2648,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jennifer Nguyen</t>
+          <t>Michael Matthews</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2589,11 +2657,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7056</v>
+        <v>6426</v>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" s="1" t="n">
-        <v>44004</v>
+        <v>43988</v>
       </c>
     </row>
     <row r="94">
@@ -2604,7 +2672,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tamara Smith</t>
+          <t>Tiffany Zavala</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2613,11 +2681,11 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>368</v>
+        <v>1104</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" s="1" t="n">
-        <v>43863</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="95">
@@ -2628,7 +2696,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Deanna Burton</t>
+          <t>Cindy Stokes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2637,11 +2705,11 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2789</v>
+        <v>6104</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" s="1" t="n">
-        <v>43865</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="96">
@@ -2652,7 +2720,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Catherine Moore</t>
+          <t>Mary Martin</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2661,11 +2729,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4063</v>
+        <v>9933</v>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" s="1" t="n">
-        <v>43913</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="97">
@@ -2676,7 +2744,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Paul Lam</t>
+          <t>Madison Jackson</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2685,11 +2753,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1638</v>
+        <v>297</v>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" s="1" t="n">
-        <v>44018</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="98">
@@ -2700,7 +2768,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tiffany Brown</t>
+          <t>James Vega</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2709,11 +2777,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>8366</v>
+        <v>1665</v>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" s="1" t="n">
-        <v>43870</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="99">
@@ -2724,7 +2792,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Karen Martin</t>
+          <t>Benjamin Jennings</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2733,11 +2801,11 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>767</v>
+        <v>2256</v>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" s="1" t="n">
-        <v>43879</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="100">
@@ -2748,7 +2816,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ryan Evans</t>
+          <t>Nicole Matthews</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2757,11 +2825,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4928</v>
+        <v>1076</v>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" s="1" t="n">
-        <v>43962</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="101">
@@ -2772,7 +2840,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>William Collier</t>
+          <t>Donald Howard</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2781,11 +2849,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6135</v>
+        <v>7126</v>
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" s="1" t="n">
-        <v>43971</v>
+        <v>43909</v>
       </c>
     </row>
   </sheetData>
